--- a/src/main/resources/static/templatefiles/包干成本导入模板.xlsx
+++ b/src/main/resources/static/templatefiles/包干成本导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="348"/>
+    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="389">
   <si>
     <t>区域</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>纯数字</t>
+  </si>
+  <si>
+    <t>纯数字(D列为否时可不填)</t>
   </si>
   <si>
     <t>数值</t>
@@ -1129,20 +1132,32 @@
 例如</t>
   </si>
   <si>
-    <t>区域-结算运营商-制表时间-自定义序号(三位数字)
+    <t>包干-结算运营商-制表时间-自定义序号(三位数字)
 例如</t>
   </si>
   <si>
+    <t>巴南</t>
+  </si>
+  <si>
     <t>移动</t>
   </si>
   <si>
     <t>包干-移动-20180611-001</t>
   </si>
   <si>
+    <t>江津</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
+    <t>南岸</t>
+  </si>
+  <si>
     <t>电信</t>
+  </si>
+  <si>
+    <t>綦江</t>
   </si>
   <si>
     <t>移动电信</t>
@@ -1177,10 +1192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1203,8 +1218,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1220,6 +1341,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1227,121 +1355,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,31 +1377,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,25 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1461,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,25 +1503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,37 +1533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,13 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,11 +1586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,9 +1627,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,7 +1655,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,32 +1683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1676,10 +1691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,133 +1703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,7 +1846,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1844,9 +1862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2206,10 +2221,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2234,58 +2249,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11597,8 +11612,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11679,87 +11694,90 @@
       <c r="D2" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>363</v>
+      <c r="E2" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>362</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>43101</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>43501</v>
       </c>
       <c r="L3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M3" s="6">
+        <v>373</v>
+      </c>
+      <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="7"/>
+        <v>373</v>
+      </c>
+      <c r="P3" s="8"/>
       <c r="Q3">
         <v>201805</v>
       </c>
       <c r="R3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="4:17">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="D4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I4" s="5">
+        <v>376</v>
+      </c>
+      <c r="I4" s="6">
         <v>43533</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>43708</v>
       </c>
       <c r="L4" t="s">
@@ -11771,52 +11789,58 @@
       <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="8"/>
       <c r="Q4">
         <v>201903</v>
       </c>
     </row>
-    <row r="5" spans="9:17">
-      <c r="I5" s="5">
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" s="6">
         <v>43971</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>43994</v>
       </c>
       <c r="L5" t="s">
-        <v>374</v>
-      </c>
-      <c r="M5" s="8">
+        <v>378</v>
+      </c>
+      <c r="M5" s="9">
         <v>0.2339</v>
       </c>
       <c r="O5" t="s">
-        <v>374</v>
-      </c>
-      <c r="P5" s="7"/>
+        <v>378</v>
+      </c>
+      <c r="P5" s="8"/>
       <c r="Q5">
         <v>202002</v>
       </c>
     </row>
-    <row r="6" spans="12:17">
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>0.1912</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="8"/>
       <c r="Q6">
         <v>202011</v>
       </c>
     </row>
     <row r="7" spans="12:16">
       <c r="L7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M7">
         <v>0.2541</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="12:16">
       <c r="L8" t="s">
@@ -11825,133 +11849,133 @@
       <c r="M8">
         <v>0.7351</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="12:16">
       <c r="L9" t="s">
-        <v>376</v>
-      </c>
-      <c r="P9" s="7"/>
+        <v>381</v>
+      </c>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="12:16">
       <c r="L10" t="s">
-        <v>377</v>
-      </c>
-      <c r="P10" s="7"/>
+        <v>382</v>
+      </c>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="12:16">
       <c r="L11" t="s">
-        <v>378</v>
-      </c>
-      <c r="P11" s="7"/>
+        <v>383</v>
+      </c>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="12:16">
       <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="12:16">
       <c r="L13" t="s">
-        <v>379</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>384</v>
+      </c>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="12:16">
       <c r="L14" t="s">
-        <v>380</v>
-      </c>
-      <c r="P14" s="7"/>
+        <v>385</v>
+      </c>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="12:16">
       <c r="L15" t="s">
-        <v>381</v>
-      </c>
-      <c r="P15" s="7"/>
+        <v>386</v>
+      </c>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="12:16">
       <c r="L16" t="s">
-        <v>382</v>
-      </c>
-      <c r="P16" s="7"/>
+        <v>387</v>
+      </c>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="12:16">
       <c r="L17" t="s">
-        <v>383</v>
-      </c>
-      <c r="P17" s="7"/>
+        <v>388</v>
+      </c>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="16:16">
-      <c r="P18" s="7"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="16:16">
-      <c r="P19" s="7"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="16:16">
-      <c r="P20" s="7"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="16:16">
-      <c r="P21" s="7"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="16:16">
-      <c r="P22" s="7"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="16:16">
-      <c r="P23" s="7"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="16:16">
-      <c r="P24" s="7"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="16:16">
-      <c r="P25" s="7"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="16:16">
-      <c r="P26" s="7"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="16:16">
-      <c r="P27" s="7"/>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="16:16">
-      <c r="P28" s="7"/>
+      <c r="P28" s="8"/>
     </row>
     <row r="29" spans="16:16">
-      <c r="P29" s="7"/>
+      <c r="P29" s="8"/>
     </row>
     <row r="30" spans="16:16">
-      <c r="P30" s="7"/>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="16:16">
-      <c r="P31" s="7"/>
+      <c r="P31" s="8"/>
     </row>
     <row r="32" spans="16:16">
-      <c r="P32" s="7"/>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="16:16">
-      <c r="P33" s="7"/>
+      <c r="P33" s="8"/>
     </row>
     <row r="34" spans="16:16">
-      <c r="P34" s="7"/>
+      <c r="P34" s="8"/>
     </row>
     <row r="35" spans="16:16">
-      <c r="P35" s="7"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="36" spans="16:16">
-      <c r="P36" s="7"/>
+      <c r="P36" s="8"/>
     </row>
     <row r="37" spans="16:16">
-      <c r="P37" s="7"/>
+      <c r="P37" s="8"/>
     </row>
     <row r="38" spans="16:16">
-      <c r="P38" s="7"/>
+      <c r="P38" s="8"/>
     </row>
     <row r="39" spans="16:16">
-      <c r="P39" s="7"/>
+      <c r="P39" s="8"/>
     </row>
     <row r="40" spans="16:16">
-      <c r="P40" s="7"/>
+      <c r="P40" s="8"/>
     </row>
     <row r="41" spans="16:16">
-      <c r="P41" s="7"/>
+      <c r="P41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
